--- a/data/IFPRI ATI Database (02-26-2024).xlsx
+++ b/data/IFPRI ATI Database (02-26-2024).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (IFPRI)\3 Projects\WX Studies\AFS Transformation Study\Slides\Version 2 (02_25_2024)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rythomas\Documents\R_scripts\country_scorecards\country_scorecards\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D91F31C0-F79C-4ACB-B0DB-1B81B765652F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68AC3024-9CD2-4CE5-9844-73F37477BC7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-76920" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{E845145C-039B-46B5-ABC1-230905954B7C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E845145C-039B-46B5-ABC1-230905954B7C}"/>
   </bookViews>
   <sheets>
     <sheet name="ATI" sheetId="1" r:id="rId1"/>
@@ -710,9 +710,6 @@
     <t>Cameroon</t>
   </si>
   <si>
-    <t>Congo, Dem. Rep.</t>
-  </si>
-  <si>
     <t>Congo, Rep.</t>
   </si>
   <si>
@@ -755,9 +752,6 @@
     <t>Ecuador</t>
   </si>
   <si>
-    <t>Egypt, Arab Rep.</t>
-  </si>
-  <si>
     <t>Eritrea</t>
   </si>
   <si>
@@ -932,9 +926,6 @@
     <t>Malta</t>
   </si>
   <si>
-    <t>Myanmar</t>
-  </si>
-  <si>
     <t>Montenegro</t>
   </si>
   <si>
@@ -1157,15 +1148,6 @@
     <t>Zimbabwe</t>
   </si>
   <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Isocode</t>
-  </si>
-  <si>
-    <t>Income group</t>
-  </si>
-  <si>
     <t>Indicator values (equal weights)</t>
   </si>
   <si>
@@ -1173,6 +1155,24 @@
   </si>
   <si>
     <t>Missing value</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>iso</t>
+  </si>
+  <si>
+    <t>income_group</t>
+  </si>
+  <si>
+    <t>Dem Rep Congo</t>
+  </si>
+  <si>
+    <t>Burma</t>
+  </si>
+  <si>
+    <t>Egypt</t>
   </si>
 </sst>
 </file>
@@ -1180,7 +1180,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -1257,7 +1257,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1277,7 +1277,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="2">
     <dxf>
       <font>
         <color theme="9" tint="-0.499984740745262"/>
@@ -1295,96 +1295,6 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1721,38 +1631,38 @@
   <dimension ref="A1:Y189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="7" topLeftCell="D49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3:F3"/>
+      <selection pane="bottomRight" activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="1" max="1" width="29.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="E3" s="8" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1760,7 +1670,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -1768,12 +1678,12 @@
         <v>45348</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="D6" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>373</v>
       </c>
@@ -1850,7 +1760,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>191</v>
       </c>
@@ -1927,7 +1837,7 @@
         <v>0.28249164999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>192</v>
       </c>
@@ -2004,7 +1914,7 @@
         <v>0.44899382500000001</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>193</v>
       </c>
@@ -2081,7 +1991,7 @@
         <v>0.74657170000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>194</v>
       </c>
@@ -2158,7 +2068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>195</v>
       </c>
@@ -2235,7 +2145,7 @@
         <v>0.90156084999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>196</v>
       </c>
@@ -2312,7 +2222,7 @@
         <v>0.59913970000000005</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>197</v>
       </c>
@@ -2389,7 +2299,7 @@
         <v>0.60867579999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>198</v>
       </c>
@@ -2466,7 +2376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>199</v>
       </c>
@@ -2543,7 +2453,7 @@
         <v>0.61796332499999995</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>200</v>
       </c>
@@ -2620,7 +2530,7 @@
         <v>0.33219745000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>201</v>
       </c>
@@ -2697,7 +2607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>202</v>
       </c>
@@ -2774,7 +2684,7 @@
         <v>0.52763237500000004</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>203</v>
       </c>
@@ -2851,7 +2761,7 @@
         <v>0.28462405000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>204</v>
       </c>
@@ -2928,7 +2838,7 @@
         <v>0.76363185</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>205</v>
       </c>
@@ -3005,7 +2915,7 @@
         <v>0.90340844999999992</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>206</v>
       </c>
@@ -3082,7 +2992,7 @@
         <v>0.87582437499999999</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>207</v>
       </c>
@@ -3159,7 +3069,7 @@
         <v>0.76343432499999997</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>208</v>
       </c>
@@ -3236,7 +3146,7 @@
         <v>0.88260627500000011</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>209</v>
       </c>
@@ -3313,7 +3223,7 @@
         <v>0.74700712499999999</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>210</v>
       </c>
@@ -3390,7 +3300,7 @@
         <v>0.61396867499999996</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>211</v>
       </c>
@@ -3467,7 +3377,7 @@
         <v>0.53972525000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>212</v>
       </c>
@@ -3544,7 +3454,7 @@
         <v>0.89377202500000008</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>213</v>
       </c>
@@ -3621,7 +3531,7 @@
         <v>0.88981789999999994</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>214</v>
       </c>
@@ -3698,7 +3608,7 @@
         <v>0.62686622500000011</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>215</v>
       </c>
@@ -3775,7 +3685,7 @@
         <v>0.49598422499999995</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>216</v>
       </c>
@@ -3852,7 +3762,7 @@
         <v>0.504050475</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>217</v>
       </c>
@@ -3929,7 +3839,7 @@
         <v>0.29438912499999997</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>218</v>
       </c>
@@ -4006,7 +3916,7 @@
         <v>0.89867957500000006</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>219</v>
       </c>
@@ -4083,7 +3993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>220</v>
       </c>
@@ -4160,7 +4070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>221</v>
       </c>
@@ -4237,7 +4147,7 @@
         <v>0.90474577499999997</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>222</v>
       </c>
@@ -4314,7 +4224,7 @@
         <v>0.70987322499999994</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>223</v>
       </c>
@@ -4391,9 +4301,9 @@
         <v>0.74172632500000002</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>224</v>
+        <v>376</v>
       </c>
       <c r="B41" t="s">
         <v>42</v>
@@ -4468,9 +4378,9 @@
         <v>0.34431875000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B42" t="s">
         <v>43</v>
@@ -4545,9 +4455,9 @@
         <v>0.71014485000000005</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B43" t="s">
         <v>44</v>
@@ -4622,9 +4532,9 @@
         <v>0.90707150000000003</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B44" t="s">
         <v>45</v>
@@ -4699,9 +4609,9 @@
         <v>0.49969675000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B45" t="s">
         <v>46</v>
@@ -4776,9 +4686,9 @@
         <v>0.40006277499999998</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B46" t="s">
         <v>47</v>
@@ -4853,9 +4763,9 @@
         <v>0.97501274999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B47" t="s">
         <v>48</v>
@@ -4930,9 +4840,9 @@
         <v>0.73173464999999993</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B48" t="s">
         <v>49</v>
@@ -5007,9 +4917,9 @@
         <v>0.83937130000000004</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B49" t="s">
         <v>50</v>
@@ -5084,9 +4994,9 @@
         <v>0.97205554999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B50" t="s">
         <v>51</v>
@@ -5161,9 +5071,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B51" t="s">
         <v>52</v>
@@ -5238,9 +5148,9 @@
         <v>0.54903117499999998</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B52" t="s">
         <v>53</v>
@@ -5315,9 +5225,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B53" t="s">
         <v>54</v>
@@ -5392,9 +5302,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B54" t="s">
         <v>55</v>
@@ -5469,9 +5379,9 @@
         <v>0.6378953249999999</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B55" t="s">
         <v>56</v>
@@ -5546,9 +5456,9 @@
         <v>0.82897299999999996</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>239</v>
+        <v>378</v>
       </c>
       <c r="B56" t="s">
         <v>57</v>
@@ -5623,9 +5533,9 @@
         <v>0.87774344999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B57" t="s">
         <v>58</v>
@@ -5700,9 +5610,9 @@
         <v>0.19156529999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B58" t="s">
         <v>59</v>
@@ -5777,9 +5687,9 @@
         <v>0.89448087499999995</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B59" t="s">
         <v>60</v>
@@ -5854,9 +5764,9 @@
         <v>0.89262727499999994</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B60" t="s">
         <v>61</v>
@@ -5931,9 +5841,9 @@
         <v>0.45793075</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B61" t="s">
         <v>62</v>
@@ -6008,9 +5918,9 @@
         <v>0.85850249999999995</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B62" t="s">
         <v>63</v>
@@ -6085,9 +5995,9 @@
         <v>0.69609790000000005</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B63" t="s">
         <v>64</v>
@@ -6162,9 +6072,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B64" t="s">
         <v>65</v>
@@ -6239,9 +6149,9 @@
         <v>0.73499687499999999</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B65" t="s">
         <v>66</v>
@@ -6316,9 +6226,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B66" t="s">
         <v>67</v>
@@ -6393,9 +6303,9 @@
         <v>0.49793770000000004</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B67" t="s">
         <v>68</v>
@@ -6470,9 +6380,9 @@
         <v>0.7212326</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B68" t="s">
         <v>69</v>
@@ -6547,9 +6457,9 @@
         <v>0.38481329999999997</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B69" t="s">
         <v>70</v>
@@ -6624,9 +6534,9 @@
         <v>0.25986572499999999</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B70" t="s">
         <v>71</v>
@@ -6701,9 +6611,9 @@
         <v>0.26590587499999996</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B71" t="s">
         <v>72</v>
@@ -6778,9 +6688,9 @@
         <v>0.521955036875</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B72" t="s">
         <v>73</v>
@@ -6855,9 +6765,9 @@
         <v>0.91769897499999997</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B73" t="s">
         <v>74</v>
@@ -6932,9 +6842,9 @@
         <v>0.70899282500000005</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B74" t="s">
         <v>75</v>
@@ -7009,9 +6919,9 @@
         <v>0.59826480000000004</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B75" t="s">
         <v>76</v>
@@ -7086,9 +6996,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B76" t="s">
         <v>77</v>
@@ -7163,9 +7073,9 @@
         <v>0.67823440000000002</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B77" t="s">
         <v>78</v>
@@ -7240,9 +7150,9 @@
         <v>0.99600480000000002</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B78" t="s">
         <v>79</v>
@@ -7317,9 +7227,9 @@
         <v>0.388678725</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B79" t="s">
         <v>80</v>
@@ -7394,9 +7304,9 @@
         <v>0.96206647499999998</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B80" t="s">
         <v>81</v>
@@ -7471,9 +7381,9 @@
         <v>0.85209069999999998</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B81" t="s">
         <v>82</v>
@@ -7548,9 +7458,9 @@
         <v>0.54153709999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B82" t="s">
         <v>83</v>
@@ -7625,9 +7535,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B83" t="s">
         <v>84</v>
@@ -7702,9 +7612,9 @@
         <v>0.46716507500000004</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B84" t="s">
         <v>85</v>
@@ -7779,9 +7689,9 @@
         <v>0.57924160000000002</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B85" t="s">
         <v>86</v>
@@ -7856,9 +7766,9 @@
         <v>0.9352119000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B86" t="s">
         <v>87</v>
@@ -7933,9 +7843,9 @@
         <v>0.95488379999999995</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B87" t="s">
         <v>88</v>
@@ -8010,9 +7920,9 @@
         <v>0.97116207500000007</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B88" t="s">
         <v>89</v>
@@ -8087,9 +7997,9 @@
         <v>0.86401605000000004</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B89" t="s">
         <v>90</v>
@@ -8164,9 +8074,9 @@
         <v>0.90015614999999993</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B90" t="s">
         <v>91</v>
@@ -8241,9 +8151,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B91" t="s">
         <v>92</v>
@@ -8318,9 +8228,9 @@
         <v>0.50389775000000003</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B92" t="s">
         <v>93</v>
@@ -8395,9 +8305,9 @@
         <v>0.41850695000000004</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B93" t="s">
         <v>94</v>
@@ -8472,9 +8382,9 @@
         <v>0.57807517500000005</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B94" t="s">
         <v>95</v>
@@ -8549,9 +8459,9 @@
         <v>0.5220146</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B95" t="s">
         <v>96</v>
@@ -8626,9 +8536,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B96" t="s">
         <v>97</v>
@@ -8703,9 +8613,9 @@
         <v>0.99914340000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B97" t="s">
         <v>98</v>
@@ -8780,9 +8690,9 @@
         <v>0.62702172500000009</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B98" t="s">
         <v>99</v>
@@ -8857,9 +8767,9 @@
         <v>0.97438144999999998</v>
       </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B99" t="s">
         <v>100</v>
@@ -8934,9 +8844,9 @@
         <v>0.22191850000000002</v>
       </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B100" t="s">
         <v>101</v>
@@ -9011,9 +8921,9 @@
         <v>0.48613695000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B101" t="s">
         <v>102</v>
@@ -9088,9 +8998,9 @@
         <v>0.80586869999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B102" t="s">
         <v>103</v>
@@ -9165,9 +9075,9 @@
         <v>0.82007995</v>
       </c>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B103" t="s">
         <v>104</v>
@@ -9242,9 +9152,9 @@
         <v>0.32832442499999998</v>
       </c>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B104" t="s">
         <v>105</v>
@@ -9319,9 +9229,9 @@
         <v>0.90250422499999994</v>
       </c>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B105" t="s">
         <v>106</v>
@@ -9396,9 +9306,9 @@
         <v>0.97694559999999997</v>
       </c>
     </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B106" t="s">
         <v>107</v>
@@ -9473,9 +9383,9 @@
         <v>0.90376817500000006</v>
       </c>
     </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B107" t="s">
         <v>108</v>
@@ -9550,9 +9460,9 @@
         <v>0.49688527499999996</v>
       </c>
     </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B108" t="s">
         <v>109</v>
@@ -9627,9 +9537,9 @@
         <v>0.52147317500000001</v>
       </c>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B109" t="s">
         <v>110</v>
@@ -9704,9 +9614,9 @@
         <v>0.32260197499999999</v>
       </c>
     </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B110" t="s">
         <v>111</v>
@@ -9781,9 +9691,9 @@
         <v>0.69173445</v>
       </c>
     </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B111" t="s">
         <v>112</v>
@@ -9858,9 +9768,9 @@
         <v>0.74224000000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B112" t="s">
         <v>113</v>
@@ -9935,9 +9845,9 @@
         <v>0.74389159999999999</v>
       </c>
     </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B113" t="s">
         <v>114</v>
@@ -10012,9 +9922,9 @@
         <v>0.27148949999999999</v>
       </c>
     </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B114" t="s">
         <v>115</v>
@@ -10089,9 +9999,9 @@
         <v>0.80355082784528664</v>
       </c>
     </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>298</v>
+        <v>377</v>
       </c>
       <c r="B115" t="s">
         <v>116</v>
@@ -10166,9 +10076,9 @@
         <v>0.56881892499999998</v>
       </c>
     </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B116" t="s">
         <v>117</v>
@@ -10227,9 +10137,9 @@
         <v>0.76784335000000004</v>
       </c>
     </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B117" t="s">
         <v>118</v>
@@ -10304,9 +10214,9 @@
         <v>0.40459362500000001</v>
       </c>
     </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B118" t="s">
         <v>119</v>
@@ -10381,9 +10291,9 @@
         <v>0.217195625</v>
       </c>
     </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B119" t="s">
         <v>120</v>
@@ -10458,9 +10368,9 @@
         <v>0.41971217500000002</v>
       </c>
     </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B120" t="s">
         <v>121</v>
@@ -10535,9 +10445,9 @@
         <v>0.9002426</v>
       </c>
     </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B121" t="s">
         <v>122</v>
@@ -10612,9 +10522,9 @@
         <v>0.50746012500000004</v>
       </c>
     </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B122" t="s">
         <v>123</v>
@@ -10689,9 +10599,9 @@
         <v>0.94276095000000004</v>
       </c>
     </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B123" t="s">
         <v>124</v>
@@ -10766,9 +10676,9 @@
         <v>0.51953910000000003</v>
       </c>
     </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B124" t="s">
         <v>125</v>
@@ -10843,9 +10753,9 @@
         <v>0.73024257500000012</v>
       </c>
     </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B125" t="s">
         <v>126</v>
@@ -10920,9 +10830,9 @@
         <v>0.133163</v>
       </c>
     </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B126" t="s">
         <v>127</v>
@@ -10997,9 +10907,9 @@
         <v>0.51089589999999996</v>
       </c>
     </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B127" t="s">
         <v>128</v>
@@ -11074,9 +10984,9 @@
         <v>0.70166377499999999</v>
       </c>
     </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B128" t="s">
         <v>129</v>
@@ -11151,9 +11061,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B129" t="s">
         <v>130</v>
@@ -11228,9 +11138,9 @@
         <v>0.89979520000000002</v>
       </c>
     </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B130" t="s">
         <v>131</v>
@@ -11305,9 +11215,9 @@
         <v>0.49562272500000004</v>
       </c>
     </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B131" t="s">
         <v>132</v>
@@ -11382,9 +11292,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B132" t="s">
         <v>133</v>
@@ -11459,9 +11369,9 @@
         <v>0.99889824999999999</v>
       </c>
     </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B133" t="s">
         <v>134</v>
@@ -11536,9 +11446,9 @@
         <v>0.44791747500000001</v>
       </c>
     </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B134" t="s">
         <v>135</v>
@@ -11613,9 +11523,9 @@
         <v>0.75857625000000006</v>
       </c>
     </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B135" t="s">
         <v>136</v>
@@ -11690,9 +11600,9 @@
         <v>0.83954007500000005</v>
       </c>
     </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B136" t="s">
         <v>137</v>
@@ -11767,9 +11677,9 @@
         <v>0.67428807499999999</v>
       </c>
     </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B137" t="s">
         <v>138</v>
@@ -11844,9 +11754,9 @@
         <v>0.76747955000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B138" t="s">
         <v>139</v>
@@ -11921,9 +11831,9 @@
         <v>0.88791170000000008</v>
       </c>
     </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B139" t="s">
         <v>140</v>
@@ -11998,9 +11908,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B140" t="s">
         <v>141</v>
@@ -12075,9 +11985,9 @@
         <v>0.97686094999999995</v>
       </c>
     </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B141" t="s">
         <v>142</v>
@@ -12152,9 +12062,9 @@
         <v>0.86316660000000001</v>
       </c>
     </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B142" t="s">
         <v>143</v>
@@ -12229,9 +12139,9 @@
         <v>0.77349625</v>
       </c>
     </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B143" t="s">
         <v>144</v>
@@ -12306,9 +12216,9 @@
         <v>0.77853245000000004</v>
       </c>
     </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B144" t="s">
         <v>145</v>
@@ -12383,9 +12293,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B145" t="s">
         <v>146</v>
@@ -12460,9 +12370,9 @@
         <v>0.89671765000000003</v>
       </c>
     </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B146" t="s">
         <v>147</v>
@@ -12537,9 +12447,9 @@
         <v>0.62044635000000004</v>
       </c>
     </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B147" t="s">
         <v>148</v>
@@ -12614,9 +12524,9 @@
         <v>0.45345007500000001</v>
       </c>
     </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B148" t="s">
         <v>149</v>
@@ -12691,9 +12601,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B149" t="s">
         <v>150</v>
@@ -12740,9 +12650,9 @@
         <v>0.28249027500000007</v>
       </c>
     </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B150" t="s">
         <v>151</v>
@@ -12817,9 +12727,9 @@
         <v>0.57299470000000008</v>
       </c>
     </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B151" t="s">
         <v>152</v>
@@ -12894,9 +12804,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B152" t="s">
         <v>153</v>
@@ -12971,9 +12881,9 @@
         <v>0.59918729999999998</v>
       </c>
     </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B153" t="s">
         <v>154</v>
@@ -13048,9 +12958,9 @@
         <v>0.35390772500000001</v>
       </c>
     </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B154" t="s">
         <v>155</v>
@@ -13125,9 +13035,9 @@
         <v>0.71908847499999995</v>
       </c>
     </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
@@ -13202,9 +13112,9 @@
         <v>0.27747174999999996</v>
       </c>
     </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
@@ -13263,9 +13173,9 @@
         <v>0.878069875</v>
       </c>
     </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
@@ -13312,9 +13222,9 @@
         <v>0.35194752499999998</v>
       </c>
     </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
@@ -13389,9 +13299,9 @@
         <v>0.69339357499999998</v>
       </c>
     </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
@@ -13466,9 +13376,9 @@
         <v>0.74976667500000005</v>
       </c>
     </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
@@ -13543,9 +13453,9 @@
         <v>0.94999719999999999</v>
       </c>
     </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
@@ -13620,9 +13530,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
@@ -13697,9 +13607,9 @@
         <v>0.97227724999999998</v>
       </c>
     </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
@@ -13774,9 +13684,9 @@
         <v>0.69432877500000001</v>
       </c>
     </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
@@ -13851,9 +13761,9 @@
         <v>0.38820202500000001</v>
       </c>
     </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
@@ -13928,9 +13838,9 @@
         <v>0.25065694999999999</v>
       </c>
     </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
@@ -14005,9 +13915,9 @@
         <v>0.301428325</v>
       </c>
     </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
@@ -14082,9 +13992,9 @@
         <v>0.72675125000000007</v>
       </c>
     </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
@@ -14159,9 +14069,9 @@
         <v>0.59978757500000002</v>
       </c>
     </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
@@ -14236,9 +14146,9 @@
         <v>0.43782414999999997</v>
       </c>
     </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
@@ -14313,9 +14223,9 @@
         <v>0.32698127500000002</v>
       </c>
     </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
@@ -14390,9 +14300,9 @@
         <v>0.68328852500000004</v>
       </c>
     </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
@@ -14467,9 +14377,9 @@
         <v>0.75571587499999993</v>
       </c>
     </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
@@ -14544,9 +14454,9 @@
         <v>0.49195682499999993</v>
       </c>
     </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
@@ -14621,9 +14531,9 @@
         <v>0.72139002500000005</v>
       </c>
     </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
@@ -14698,9 +14608,9 @@
         <v>0.32329977500000001</v>
       </c>
     </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
@@ -14775,9 +14685,9 @@
         <v>0.38801540000000001</v>
       </c>
     </row>
-    <row r="177" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
@@ -14852,9 +14762,9 @@
         <v>0.78870072499999999</v>
       </c>
     </row>
-    <row r="178" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
@@ -14929,9 +14839,9 @@
         <v>0.9475268</v>
       </c>
     </row>
-    <row r="179" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
@@ -15006,9 +14916,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
@@ -15083,9 +14993,9 @@
         <v>0.75227077499999995</v>
       </c>
     </row>
-    <row r="181" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
@@ -15160,9 +15070,9 @@
         <v>0.82151252499999994</v>
       </c>
     </row>
-    <row r="182" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
@@ -15237,9 +15147,9 @@
         <v>0.73153337500000004</v>
       </c>
     </row>
-    <row r="183" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
@@ -15314,9 +15224,9 @@
         <v>0.82688617500000006</v>
       </c>
     </row>
-    <row r="184" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
@@ -15391,9 +15301,9 @@
         <v>0.52267237499999997</v>
       </c>
     </row>
-    <row r="185" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
@@ -15468,9 +15378,9 @@
         <v>0.71539269999999999</v>
       </c>
     </row>
-    <row r="186" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
@@ -15545,9 +15455,9 @@
         <v>0.43178267499999995</v>
       </c>
     </row>
-    <row r="187" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
@@ -15622,9 +15532,9 @@
         <v>0.69251499999999999</v>
       </c>
     </row>
-    <row r="188" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
@@ -15699,9 +15609,9 @@
         <v>0.43968607500000001</v>
       </c>
     </row>
-    <row r="189" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
@@ -15782,11 +15692,11 @@
     <mergeCell ref="E3:F3"/>
   </mergeCells>
   <conditionalFormatting sqref="D8:Y189">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
